--- a/Levantamento+de+Veículos/Levantamento de Ve�culos.xlsx
+++ b/Levantamento+de+Veículos/Levantamento de Ve�culos.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuário\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cbb0bfc3935069fc/Documentos/GitHub/Excel/Levantamento^Mde^MVeículos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA337EA8-FCF5-419A-B97D-F35CAAC06B6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{DA337EA8-FCF5-419A-B97D-F35CAAC06B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3304705D-F97C-451F-AD08-483C2BA588FF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -209,22 +209,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -510,18 +510,18 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +535,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -545,9 +545,12 @@
       <c r="C2" s="5">
         <v>1990</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="str">
+        <f>IF(OR(B2="bom",C2&gt;=1990),"Bom","Ruim")</f>
+        <v>Bom</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
@@ -557,9 +560,12 @@
       <c r="C3" s="8">
         <v>1965</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="6" t="str">
+        <f t="shared" ref="D3:D7" si="0">IF(OR(B3="bom",C3&gt;=1990),"Bom","Ruim")</f>
+        <v>Ruim</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -569,9 +575,12 @@
       <c r="C4" s="5">
         <v>1999</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Bom</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
@@ -581,9 +590,12 @@
       <c r="C5" s="8">
         <v>1973</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Ruim</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -593,9 +605,12 @@
       <c r="C6" s="5">
         <v>1975</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Bom</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>3</v>
       </c>
@@ -605,7 +620,10 @@
       <c r="C7" s="10">
         <v>1993</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Bom</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
